--- a/rexistro_libros.xlsx
+++ b/rexistro_libros.xlsx
@@ -524,7 +524,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
